--- a/manualTestCases/tutorialsNinja-TestCases.xlsx
+++ b/manualTestCases/tutorialsNinja-TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Pc\eclipse-workspace\Final_exam_Selenium\manualTestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337BB6DA-F4E7-4CD6-8274-7EC618DE7F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC5199E-0E61-43D1-9737-90296304FB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{0863769C-04A6-46E6-ABEB-118DA08E75DE}"/>
   </bookViews>
@@ -2199,8 +2199,8 @@
   </sheetPr>
   <dimension ref="A1:N1268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A324" sqref="A324"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2347,7 +2347,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>

--- a/manualTestCases/tutorialsNinja-TestCases.xlsx
+++ b/manualTestCases/tutorialsNinja-TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My Pc\eclipse-workspace\Final_exam_Selenium\manualTestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636F9E10-ED0F-46BC-AA84-E527B03F8465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EE7297-783E-4392-8910-D878AAA8E0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{0863769C-04A6-46E6-ABEB-118DA08E75DE}"/>
   </bookViews>
@@ -3102,8 +3102,8 @@
   </sheetPr>
   <dimension ref="A1:M1236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
